--- a/자유수강권자 환불/로보로보(재료).xlsx
+++ b/자유수강권자 환불/로보로보(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>주야</t>
   </si>
@@ -73,70 +73,10 @@
     <t>5반</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>이윤호</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>한준석</t>
-  </si>
-  <si>
-    <t>2학년</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>김민준</t>
-  </si>
-  <si>
-    <t>2반</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>강병주</t>
-  </si>
-  <si>
-    <t>변시우</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>윤도현</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>권범수</t>
-  </si>
-  <si>
-    <t>송희근</t>
-  </si>
-  <si>
-    <t>이종관</t>
-  </si>
-  <si>
-    <t>3학년</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>장하준</t>
-  </si>
-  <si>
-    <t>이승주</t>
-  </si>
-  <si>
-    <t>정준섭</t>
   </si>
 </sst>
 </file>
@@ -505,9 +445,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -628,259 +570,6 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.5">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.5">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="13.5">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.5">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.5">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.5">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13.5">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.5">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
